--- a/practice.xlsx
+++ b/practice.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20369"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/HWKim/Documents/PsychoPy/FST/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mjh200002\Documents\GitHub\FST_PsychoPy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{712FD1F8-12E9-BF46-BFE4-55814AC999C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{010B254F-E4D2-4E9B-A9D2-AA96C0FEDB3A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28220" yWindow="-6840" windowWidth="18280" windowHeight="18700" xr2:uid="{70A2FF1C-CF59-264B-AA00-0BA3AD897169}"/>
+    <workbookView xWindow="28215" yWindow="-6240" windowWidth="18285" windowHeight="18705" xr2:uid="{70A2FF1C-CF59-264B-AA00-0BA3AD897169}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,69 +23,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="23">
-  <si>
-    <t>sent_stim/012_OM.wav</t>
-  </si>
-  <si>
-    <t>sent_stim/012_SM.wav</t>
-  </si>
-  <si>
-    <t>sent_stim/023_OF.wav</t>
-  </si>
-  <si>
-    <t>sent_stim/023_SF.wav</t>
-  </si>
-  <si>
-    <t>sent_stim/025_OM.wav</t>
-  </si>
-  <si>
-    <t>sent_stim/025_SF.wav</t>
-  </si>
-  <si>
-    <t>sent_stim/042_OF.wav</t>
-  </si>
-  <si>
-    <t>sent_stim/042_SM.wav</t>
-  </si>
-  <si>
-    <t>sent_stim/063_SF.wav</t>
-  </si>
-  <si>
-    <t>sent_stim/063_SM.wav</t>
-  </si>
-  <si>
-    <t>sent_stim/076_SM.wav</t>
-  </si>
-  <si>
-    <t>sent_stim/076_SF.wav</t>
-  </si>
-  <si>
-    <t>sent_stim/110_OF.wav</t>
-  </si>
-  <si>
-    <t>sent_stim/110_OM.wav</t>
-  </si>
-  <si>
-    <t>sent_stim/127_OM.wav</t>
-  </si>
-  <si>
-    <t>sent_stim/127_OF.wav</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>target</t>
   </si>
@@ -106,6 +49,63 @@
   </si>
   <si>
     <t>sent_stim</t>
+  </si>
+  <si>
+    <t>sent_stim_121720\101_SF_SNR2.wav</t>
+  </si>
+  <si>
+    <t>sent_stim_121720\102_OF_SNR-2.wav</t>
+  </si>
+  <si>
+    <t>sent_stim_121720\103_OF_SNR2.wav</t>
+  </si>
+  <si>
+    <t>sent_stim_121720\104_SM_SNR2.wav</t>
+  </si>
+  <si>
+    <t>sent_stim_121720\105_OM_SNR-2.wav</t>
+  </si>
+  <si>
+    <t>sent_stim_121720\106_SF_SNR2.wav</t>
+  </si>
+  <si>
+    <t>sent_stim_121720\107_OF_SNR-2.wav</t>
+  </si>
+  <si>
+    <t>sent_stim_121720\108_SF_SNR-2.wav</t>
+  </si>
+  <si>
+    <t>sent_stim_121720\109_SM_SNR-2.wav</t>
+  </si>
+  <si>
+    <t>sent_stim_121720\110_OF_SNR2.wav</t>
+  </si>
+  <si>
+    <t>sent_stim_121720\111_SF_SNR-2.wav</t>
+  </si>
+  <si>
+    <t>sent_stim_121720\112_OM_SNR2.wav</t>
+  </si>
+  <si>
+    <t>sent_stim_121720\113_OM_SNR-2.wav</t>
+  </si>
+  <si>
+    <t>sent_stim_121720\114_SM_SNR-2.wav</t>
+  </si>
+  <si>
+    <t>sent_stim_121720\115_OM_SNR2.wav</t>
+  </si>
+  <si>
+    <t>sent_stim_121720\116_SM_SNR2.wav</t>
+  </si>
+  <si>
+    <t>snr</t>
+  </si>
+  <si>
+    <t>SNR2</t>
+  </si>
+  <si>
+    <t>SNR-2</t>
   </si>
 </sst>
 </file>
@@ -457,202 +457,253 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D80E4005-A51A-F840-9648-F404D328D8B4}">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>22</v>
       </c>
-      <c r="B1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="B17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" t="s">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17" t="s">
-        <v>17</v>
+      <c r="D17" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/practice.xlsx
+++ b/practice.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mjh200002\Documents\GitHub\FST_PsychoPy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{010B254F-E4D2-4E9B-A9D2-AA96C0FEDB3A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80822CA0-5B63-4424-847D-AD77882FBD04}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28215" yWindow="-6240" windowWidth="18285" windowHeight="18705" xr2:uid="{70A2FF1C-CF59-264B-AA00-0BA3AD897169}"/>
+    <workbookView xWindow="28215" yWindow="-5640" windowWidth="18285" windowHeight="18705" xr2:uid="{70A2FF1C-CF59-264B-AA00-0BA3AD897169}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="24">
   <si>
     <t>target</t>
   </si>
@@ -51,61 +51,55 @@
     <t>sent_stim</t>
   </si>
   <si>
-    <t>sent_stim_121720\101_SF_SNR2.wav</t>
-  </si>
-  <si>
-    <t>sent_stim_121720\102_OF_SNR-2.wav</t>
-  </si>
-  <si>
-    <t>sent_stim_121720\103_OF_SNR2.wav</t>
-  </si>
-  <si>
-    <t>sent_stim_121720\104_SM_SNR2.wav</t>
-  </si>
-  <si>
-    <t>sent_stim_121720\105_OM_SNR-2.wav</t>
-  </si>
-  <si>
-    <t>sent_stim_121720\106_SF_SNR2.wav</t>
-  </si>
-  <si>
-    <t>sent_stim_121720\107_OF_SNR-2.wav</t>
-  </si>
-  <si>
-    <t>sent_stim_121720\108_SF_SNR-2.wav</t>
-  </si>
-  <si>
-    <t>sent_stim_121720\109_SM_SNR-2.wav</t>
-  </si>
-  <si>
-    <t>sent_stim_121720\110_OF_SNR2.wav</t>
-  </si>
-  <si>
-    <t>sent_stim_121720\111_SF_SNR-2.wav</t>
-  </si>
-  <si>
-    <t>sent_stim_121720\112_OM_SNR2.wav</t>
-  </si>
-  <si>
-    <t>sent_stim_121720\113_OM_SNR-2.wav</t>
-  </si>
-  <si>
-    <t>sent_stim_121720\114_SM_SNR-2.wav</t>
-  </si>
-  <si>
-    <t>sent_stim_121720\115_OM_SNR2.wav</t>
-  </si>
-  <si>
-    <t>sent_stim_121720\116_SM_SNR2.wav</t>
-  </si>
-  <si>
-    <t>snr</t>
-  </si>
-  <si>
-    <t>SNR2</t>
-  </si>
-  <si>
-    <t>SNR-2</t>
+    <t>volume</t>
+  </si>
+  <si>
+    <t>sent_stim_122220\101_SF_SNR2.wav</t>
+  </si>
+  <si>
+    <t>sent_stim_122220\102_OF_SNR2_0.5.wav</t>
+  </si>
+  <si>
+    <t>sent_stim_122220\103_OF_SNR2.wav</t>
+  </si>
+  <si>
+    <t>sent_stim_122220\104_SM_SNR2.wav</t>
+  </si>
+  <si>
+    <t>sent_stim_122220\105_OM_SNR2_0.5.wav</t>
+  </si>
+  <si>
+    <t>sent_stim_122220\106_SF_SNR2.wav</t>
+  </si>
+  <si>
+    <t>sent_stim_122220\107_OF_SNR2_0.5.wav</t>
+  </si>
+  <si>
+    <t>sent_stim_122220\108_SF_SNR2_0.5.wav</t>
+  </si>
+  <si>
+    <t>sent_stim_122220\109_SM_SNR2_0.5.wav</t>
+  </si>
+  <si>
+    <t>sent_stim_122220\110_OF_SNR2.wav</t>
+  </si>
+  <si>
+    <t>sent_stim_122220\111_SF_SNR2_0.5.wav</t>
+  </si>
+  <si>
+    <t>sent_stim_122220\112_OM_SNR2.wav</t>
+  </si>
+  <si>
+    <t>sent_stim_122220\113_OM_SNR2_0.5.wav</t>
+  </si>
+  <si>
+    <t>sent_stim_122220\114_SM_SNR2_0.5.wav</t>
+  </si>
+  <si>
+    <t>sent_stim_122220\115_OM_SNR2.wav</t>
+  </si>
+  <si>
+    <t>sent_stim_122220\116_SM_SNR2.wav</t>
   </si>
 </sst>
 </file>
@@ -460,7 +454,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -479,12 +473,12 @@
         <v>5</v>
       </c>
       <c r="D1" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -492,13 +486,13 @@
       <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" t="s">
-        <v>24</v>
+      <c r="D2">
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
@@ -506,13 +500,13 @@
       <c r="C3" t="s">
         <v>1</v>
       </c>
-      <c r="D3" t="s">
-        <v>25</v>
+      <c r="D3">
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
@@ -520,13 +514,13 @@
       <c r="C4" t="s">
         <v>1</v>
       </c>
-      <c r="D4" t="s">
-        <v>24</v>
+      <c r="D4">
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
@@ -534,13 +528,13 @@
       <c r="C5" t="s">
         <v>2</v>
       </c>
-      <c r="D5" t="s">
-        <v>24</v>
+      <c r="D5">
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
@@ -548,13 +542,13 @@
       <c r="C6" t="s">
         <v>1</v>
       </c>
-      <c r="D6" t="s">
-        <v>25</v>
+      <c r="D6">
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
         <v>3</v>
@@ -562,13 +556,13 @@
       <c r="C7" t="s">
         <v>2</v>
       </c>
-      <c r="D7" t="s">
-        <v>24</v>
+      <c r="D7">
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
         <v>3</v>
@@ -576,13 +570,13 @@
       <c r="C8" t="s">
         <v>1</v>
       </c>
-      <c r="D8" t="s">
-        <v>25</v>
+      <c r="D8">
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
         <v>3</v>
@@ -590,13 +584,13 @@
       <c r="C9" t="s">
         <v>2</v>
       </c>
-      <c r="D9" t="s">
-        <v>25</v>
+      <c r="D9">
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
         <v>4</v>
@@ -604,13 +598,13 @@
       <c r="C10" t="s">
         <v>2</v>
       </c>
-      <c r="D10" t="s">
-        <v>25</v>
+      <c r="D10">
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
         <v>3</v>
@@ -618,13 +612,13 @@
       <c r="C11" t="s">
         <v>1</v>
       </c>
-      <c r="D11" t="s">
-        <v>24</v>
+      <c r="D11">
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s">
         <v>3</v>
@@ -632,13 +626,13 @@
       <c r="C12" t="s">
         <v>2</v>
       </c>
-      <c r="D12" t="s">
-        <v>25</v>
+      <c r="D12">
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B13" t="s">
         <v>4</v>
@@ -646,13 +640,13 @@
       <c r="C13" t="s">
         <v>1</v>
       </c>
-      <c r="D13" t="s">
-        <v>24</v>
+      <c r="D13">
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B14" t="s">
         <v>4</v>
@@ -660,13 +654,13 @@
       <c r="C14" t="s">
         <v>1</v>
       </c>
-      <c r="D14" t="s">
-        <v>25</v>
+      <c r="D14">
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B15" t="s">
         <v>4</v>
@@ -674,13 +668,13 @@
       <c r="C15" t="s">
         <v>2</v>
       </c>
-      <c r="D15" t="s">
-        <v>25</v>
+      <c r="D15">
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>4</v>
@@ -688,13 +682,13 @@
       <c r="C16" t="s">
         <v>1</v>
       </c>
-      <c r="D16" t="s">
-        <v>24</v>
+      <c r="D16">
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
         <v>4</v>
@@ -702,8 +696,8 @@
       <c r="C17" t="s">
         <v>2</v>
       </c>
-      <c r="D17" t="s">
-        <v>24</v>
+      <c r="D17">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
